--- a/output/alphas.xlsx
+++ b/output/alphas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,11 +392,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>selfconcept</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.89</v>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>wellbeing</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>

--- a/output/alphas.xlsx
+++ b/output/alphas.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
   </sheetData>
